--- a/07. JULI/hasil/IDLAGU_Outlet_HP038.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP038.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2184"/>
+  <dimension ref="A1:D2185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44111,6 +44111,17 @@
         <is>
           <t>10008136A</t>
         </is>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C2185">
+        <f>SUM(C2:C2184)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -44124,7 +44135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45112,6 +45123,17 @@
         <is>
           <t>1818284</t>
         </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C50">
+        <f>SUM(C2:C49)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -45125,7 +45147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D510"/>
+  <dimension ref="A1:D511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55335,12 +55357,235 @@
         </is>
       </c>
     </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C511">
+        <f>SUM(C2:C510)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Judul Lagu</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Penyanyi</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jumlah Pengguna</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>別知己</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>海来阿木 - 阿呷拉古 - 曲比阿且</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30005296A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>童话</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>光良</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30005188A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>永不失联的爱</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>周兴哲</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30004673A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>有点甜</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>汪苏泷 - BY2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30002917A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>彩色相片</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>蔡依林</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30002594</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>情非得已</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>庚澄庆</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3104719</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>你好不好</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>周兴哲</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30004266A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>无事年以后</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Desy Huang Jia Mei</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30005140A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -55379,12 +55624,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>別知己</t>
+          <t>Kizuna no Kiseki (Ost. Demon Slayer: Kimetsu no Yaiba)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>海来阿木 - 阿呷拉古 - 曲比阿且</t>
+          <t>Man with a Mission - ミレイ</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -55392,59 +55637,59 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30005296A</t>
+          <t>40000257A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>童话</t>
+          <t>#GirlsSpkOut</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>光良</t>
+          <t>김태연 - ちゃんみな</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30005188A</t>
+          <t>40000222A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>永不失联的爱</t>
+          <t>Gurenge</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>周兴哲</t>
+          <t>LiSA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30004673A</t>
+          <t>40000241B</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>有点甜</t>
+          <t>Haruka</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>汪苏泷 - BY2</t>
+          <t>ヨアソビ</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -55452,19 +55697,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30002917A</t>
+          <t>40000250A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>彩色相片</t>
+          <t>Idol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>蔡依林</t>
+          <t>ヨアソビ</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -55472,19 +55717,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30002594</t>
+          <t>40000256A</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>情非得已</t>
+          <t>ひまわりの約束</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>庚澄庆</t>
+          <t>秦基博</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -55492,19 +55737,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3104719</t>
+          <t>40000168A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>你好不好</t>
+          <t>Tracing that Dream</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>周兴哲</t>
+          <t>ヨアソビ</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -55512,209 +55757,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>30004266A</t>
+          <t>40000247A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>无事年以后</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Desy Huang Jia Mei</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>30005140A</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Judul Lagu</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Penyanyi</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jumlah Pengguna</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Kizuna no Kiseki (Ost. Demon Slayer: Kimetsu no Yaiba)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Man with a Mission - ミレイ</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40000257A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>#GirlsSpkOut</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>김태연 - ちゃんみな</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>40000222A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gurenge</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LiSA</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>40000241B</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Haruka</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ヨアソビ</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>40000250A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Idol</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ヨアソビ</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>40000256A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ひまわりの約束</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>秦基博</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>40000168A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Tracing that Dream</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ヨアソビ</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>40000247A</t>
-        </is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C8)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -55728,7 +55783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59296,6 +59351,17 @@
         <is>
           <t>50003450A</t>
         </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C179">
+        <f>SUM(C2:C178)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -59309,7 +59375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60311,6 +60377,17 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C51">
+        <f>SUM(C2:C50)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/07. JULI/hasil/IDLAGU_Outlet_HP038.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP038.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Jepang" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Korea" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Lain-Lain" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Total" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -61,10 +62,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -55412,12 +55416,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>別知己</t>
+          <t>Bie Zhi Ji</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>海来阿木 - 阿呷拉古 - 曲比阿且</t>
+          <t>311380.0 - 311381 - 311468.0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -55432,12 +55436,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>童话</t>
+          <t>Tong Hua</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>光良</t>
+          <t>310483.0</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -55452,12 +55456,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>永不失联的爱</t>
+          <t>Yong Bu Shi Lian De Ai</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>周兴哲</t>
+          <t>311326.0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -55472,12 +55476,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>有点甜</t>
+          <t>You Dian Tian</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>汪苏泷 - BY2</t>
+          <t>311188.0 - 330016</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -55492,12 +55496,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>彩色相片</t>
+          <t>Cai Se Xiang Pian</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>蔡依林</t>
+          <t>320153.0</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -55512,12 +55516,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>情非得已</t>
+          <t>Qing Fei De Yi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>庚澄庆</t>
+          <t>310617.0</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -55532,12 +55536,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>你好不好</t>
+          <t>Ni Hao Bu Hao</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>周兴哲</t>
+          <t>311326.0</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -55552,12 +55556,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>无事年以后</t>
+          <t>Wu Shi Nian Yi Hou</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Desy Huang Jia Mei</t>
+          <t>122402.0</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -55624,12 +55628,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kizuna no Kiseki (Ost. Demon Slayer: Kimetsu no Yaiba)</t>
+          <t>Kizuna No Kiseki (Ost.  Demon Slayer: Kimetsu No Yaiba)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Man with a Mission - ミレイ</t>
+          <t>430212.0 - 420498</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -55649,7 +55653,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>김태연 - ちゃんみな</t>
+          <t>520066.0 - 420492</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -55669,7 +55673,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LiSA</t>
+          <t>420496.0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -55689,7 +55693,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ヨアソビ</t>
+          <t>430210.0</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -55709,7 +55713,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ヨアソビ</t>
+          <t>430210.0</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -55724,12 +55728,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ひまわりの約束</t>
+          <t>Himawari No Yakusoku</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>秦基博</t>
+          <t>411238.0</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -55744,12 +55748,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tracing that Dream</t>
+          <t>Tracing That Dream</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ヨアソビ</t>
+          <t>430210.0</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -55816,12 +55820,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>붐바야</t>
+          <t>Boombayah</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -55836,12 +55840,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MEGAVERSE</t>
+          <t>Megaverse</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>스트레이 키즈</t>
+          <t>530310.0</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -55856,12 +55860,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>뚜두뚜두</t>
+          <t>DDU-DU DDU-DU</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -55881,7 +55885,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>레드벨벳</t>
+          <t>530225.0</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -55896,12 +55900,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>마지막처럼</t>
+          <t>As If It's Your Last</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -55916,12 +55920,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>뱅뱅뱅</t>
+          <t>Bang Bang Bang</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>빅뱅</t>
+          <t>530017.0</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -55941,7 +55945,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>화사</t>
+          <t>520180.0</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -55956,12 +55960,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>You Were Beautiful</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>데이식스</t>
+          <t>530270.0</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -55976,12 +55980,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>휘파람</t>
+          <t>Whistle</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -55996,12 +56000,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>(+소중한 추억190519+)</t>
+          <t>+THNX190519+</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이채린</t>
+          <t>520074.0</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -56016,12 +56020,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hmm-cheat</t>
+          <t>Hmm-Cheat</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>크러쉬</t>
+          <t>510742.0</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -56036,12 +56040,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>One and Only</t>
+          <t>One And Only</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>보이넥스트도어</t>
+          <t>530448.0</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -56061,7 +56065,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>르세라핌</t>
+          <t>530422.0</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -56081,7 +56085,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>윈터</t>
+          <t>520212.0</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -56101,7 +56105,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>에이티즈</t>
+          <t>530351.0</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -56121,7 +56125,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>지민</t>
+          <t>520122.0</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -56141,7 +56145,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -56156,12 +56160,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>나의 사춘기에게</t>
+          <t>To My Youth</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>볼빨간사춘기</t>
+          <t>530303.0</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -56176,12 +56180,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>그리워하다</t>
+          <t>Missing You</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>비투비</t>
+          <t>530023.0</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -56201,7 +56205,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>520015.0</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -56221,7 +56225,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -56236,12 +56240,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>사랑을 했다</t>
+          <t>Love Scenario</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>아이콘</t>
+          <t>530266.0</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -56256,12 +56260,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>머무르다</t>
+          <t>Stay</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -56276,12 +56280,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sudden Shower (Ost. Lovely Runner)</t>
+          <t>Sudden Shower (Ost.  Lovely Runner)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>이클립스</t>
+          <t>530465.0</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -56296,12 +56300,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>내게 들려주고 싶은 말</t>
+          <t>Dear Me</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>김태연</t>
+          <t>520066.0</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -56316,12 +56320,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>180도</t>
+          <t>180 Degree</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>벤</t>
+          <t>520177.0</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -56336,12 +56340,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>아니길</t>
+          <t>Hope Not</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -56361,7 +56365,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>있지</t>
+          <t>530363.0</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -56381,7 +56385,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>아일릿</t>
+          <t>530462.0</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -56401,7 +56405,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -56416,12 +56420,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>How Can I Love The Heartbreak, You're The One I Love</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>악뮤</t>
+          <t>530211.0</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -56436,12 +56440,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>Time of Our Life</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>데이식스</t>
+          <t>530270.0</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -56456,12 +56460,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>시작</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>가호</t>
+          <t>510896.0</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -56476,12 +56480,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>이사랑</t>
+          <t>This Love</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>다비치</t>
+          <t>530031.0</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -56501,7 +56505,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>트와이스</t>
+          <t>530275.0</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -56521,7 +56525,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>김태연</t>
+          <t>520066.0</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -56536,12 +56540,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>한숨</t>
+          <t>Breathe</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>이하이</t>
+          <t>520054.0</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -56556,12 +56560,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>데자부</t>
+          <t>Deja Vu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>드림캐쳐</t>
+          <t>530347.0</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -56581,7 +56585,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>에스파</t>
+          <t>530389.0</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -56596,12 +56600,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>해야</t>
+          <t>Sunrise</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>여자친구</t>
+          <t>530254.0</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -56616,12 +56620,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>아주 좋은</t>
+          <t>Very Nice</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>530265.0</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -56636,12 +56640,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>화재로 노는</t>
+          <t>Playing With Fire</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -56656,12 +56660,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>미쳐</t>
+          <t>Crazy</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>포미닛</t>
+          <t>530007.0</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -56681,7 +56685,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -56701,7 +56705,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -56721,7 +56725,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>이예진</t>
+          <t>520001.0</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -56741,7 +56745,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>엔씨티 Dream</t>
+          <t>530294.0</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -56756,12 +56760,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>울고 싶지 않아</t>
+          <t>Don't Wanna Cry</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>530265.0</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -56776,12 +56780,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>다시 만난 세계</t>
+          <t>Into The World</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>소녀시대</t>
+          <t>530046.0</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -56801,7 +56805,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>뉴진스</t>
+          <t>530424.0</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -56821,7 +56825,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>530265.0</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -56841,7 +56845,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>베이비몬스터</t>
+          <t>530457.0</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -56856,12 +56860,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>지금 널 찾아가고 있어</t>
+          <t>Run To You</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>530265.0</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -56876,12 +56880,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>바람</t>
+          <t>FREEDOM</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>아이콘</t>
+          <t>530266.0</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -56901,7 +56905,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -56921,7 +56925,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -56936,12 +56940,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>너를 만나</t>
+          <t>Me After You</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>510831.0</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -56956,12 +56960,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>그대라는 세상</t>
+          <t>You Are My World</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>윤 미래</t>
+          <t>520083.0</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -56976,12 +56980,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>너였다면</t>
+          <t>If It Is You</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>정승환</t>
+          <t>510819.0</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -56996,12 +57000,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>너를 위해</t>
+          <t>For You</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>백현 - 첸 - 시우민</t>
+          <t>510779.0 - 510793 - 510814.0</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -57021,7 +57025,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>베이비몬스터</t>
+          <t>530457.0</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -57036,12 +57040,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>장난 아닌데</t>
+          <t>I'm Serious</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>데이식스</t>
+          <t>530270.0</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -57061,7 +57065,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>트와이스</t>
+          <t>530275.0</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -57081,7 +57085,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>데이식스</t>
+          <t>530270.0</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -57096,12 +57100,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>비도 오고 그래서</t>
+          <t>You, Clouds, Rain</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>헤이즈 - 신용재</t>
+          <t>520149.0 - 510705</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -57116,12 +57120,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>리듬 타</t>
+          <t>Rhythm Ta</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>아이콘</t>
+          <t>530266.0</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -57136,12 +57140,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>캔트 노바디</t>
+          <t>Can't Nobody</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>투애니원</t>
+          <t>530003.0</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -57156,12 +57160,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>내가 제일 잘 나가</t>
+          <t>I'm The Best</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>투애니원</t>
+          <t>530003.0</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -57176,12 +57180,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>아파</t>
+          <t>It Hurts</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>투애니원</t>
+          <t>530003.0</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -57196,12 +57200,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>기브 러브</t>
+          <t>Give Love</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>악뮤</t>
+          <t>530211.0</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -57216,12 +57220,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>미스터츄</t>
+          <t>Mr. Chu</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>에이핑크</t>
+          <t>530010.0</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -57236,12 +57240,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>웨딩드레스</t>
+          <t>Wedding Dress</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>태양</t>
+          <t>510579.0</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -57256,12 +57260,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>어글리</t>
+          <t>Ugly</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>투애니원</t>
+          <t>530003.0</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -57276,12 +57280,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>나의 옛날이야기</t>
+          <t>My Old Story</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>520015.0</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -57296,12 +57300,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>이별공식</t>
+          <t>Love Equation</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>빅스</t>
+          <t>530006.0</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -57316,12 +57320,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>루저</t>
+          <t>Loser</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>빅뱅</t>
+          <t>530017.0</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -57336,12 +57340,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>놓아 놓아 놓아</t>
+          <t>Letting Go</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>데이식스</t>
+          <t>530270.0</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -57356,12 +57360,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>밤편지</t>
+          <t>Through The Night</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>520015.0</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -57376,12 +57380,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>썸 탈꺼야</t>
+          <t>Some</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>볼빨간 사춘기</t>
+          <t>530303.0</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -57396,12 +57400,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>이별길</t>
+          <t>GOODBYE ROAD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>아이콘</t>
+          <t>530266.0</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -57421,7 +57425,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>가호</t>
+          <t>510896.0</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -57436,12 +57440,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SHEESH</t>
+          <t>Sheesh</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>베이비몬스터</t>
+          <t>530457.0</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -57461,7 +57465,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>온앤 오프</t>
+          <t>530426.0</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -57476,12 +57480,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>홀로</t>
+          <t>Holo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>이하이</t>
+          <t>520054.0</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -57501,7 +57505,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>엔시티 유</t>
+          <t>530272.0</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -57521,7 +57525,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>백현</t>
+          <t>510779.0</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -57536,12 +57540,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>좋은 날</t>
+          <t>Good Day</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>520015.0</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -57556,12 +57560,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>미스터심플</t>
+          <t>Mr.Simple</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>슈퍼주니어</t>
+          <t>530084.0</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -57581,7 +57585,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>엔시티 127</t>
+          <t>530285.0</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -57601,7 +57605,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>아일릿</t>
+          <t>530462.0</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -57616,12 +57620,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>나는 기분이 좋다</t>
+          <t>I Feel Good</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>보이넥스트도어</t>
+          <t>530448.0</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -57636,12 +57640,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>빨간 맛</t>
+          <t>Red Flavor</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>레드벨벳</t>
+          <t>530225.0</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -57656,12 +57660,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>지</t>
+          <t>Gee</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>소녀시대</t>
+          <t>530046.0</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -57676,12 +57680,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>바로 내를</t>
+          <t>Love Me Right</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>엑소</t>
+          <t>530036.0</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -57696,12 +57700,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>너의 얘길 들어줄게</t>
+          <t>I'll Listen To What You Have To Say</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>윤 미래</t>
+          <t>520083.0</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -57716,12 +57720,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>아름다운</t>
+          <t>Beautiful</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>530173.0</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -57736,12 +57740,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>판타스틱 베이비</t>
+          <t>Fantastic Baby</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>빅뱅</t>
+          <t>530017.0</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -57761,7 +57765,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>베이비몬스터</t>
+          <t>530457.0</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -57776,12 +57780,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>여름여름해</t>
+          <t>Sunny Summer</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>여자친구</t>
+          <t>530254.0</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -57796,12 +57800,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>그대라는 시</t>
+          <t>All About You</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>김태연</t>
+          <t>520066.0</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -57816,12 +57820,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>누구 없소</t>
+          <t>NO ONE</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>이하이 - 비아이</t>
+          <t>520054.0 - 510883</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -57841,7 +57845,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>투모로우바이투게더 - 서리</t>
+          <t>530365.0 - 520201</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -57856,12 +57860,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>대취타</t>
+          <t>Daechwita</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>슈가</t>
+          <t>510909.0</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -57876,12 +57880,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>어떻게 말해</t>
+          <t>How Can I Say</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>데이식스</t>
+          <t>530270.0</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -57901,7 +57905,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>방탄소년단 - Desiigner</t>
+          <t>530173.0 - 212082</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -57916,12 +57920,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>몬스터</t>
+          <t>Monster</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>빅뱅</t>
+          <t>530017.0</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -57936,12 +57940,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>캔 유 스마일</t>
+          <t>Can You Smile [Remake]</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>인피니트</t>
+          <t>530048.0</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -57961,7 +57965,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>비원에이포</t>
+          <t>530003.0</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -57981,7 +57985,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>빅뱅</t>
+          <t>530017.0</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -58001,7 +58005,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>빅뱅</t>
+          <t>530017.0</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -58021,7 +58025,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>서정권</t>
+          <t>510765.0</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -58041,7 +58045,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>530173.0</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -58056,12 +58060,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>하루하루</t>
+          <t>Haru Haru</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>빅뱅</t>
+          <t>530017.0</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -58076,12 +58080,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>달라달라</t>
+          <t>DALLA DALLA</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>있지</t>
+          <t>530363.0</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -58101,7 +58105,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>아이콘</t>
+          <t>530266.0</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -58116,12 +58120,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DINOSAUR</t>
+          <t>Dinosaur</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>악뮤</t>
+          <t>530211.0</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -58141,7 +58145,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>530265.0</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -58161,7 +58165,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>투어스</t>
+          <t>530459.0</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -58181,7 +58185,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>베이비몬스터</t>
+          <t>530457.0</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -58201,7 +58205,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -58221,7 +58225,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -58236,12 +58240,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BIBI Vengeance</t>
+          <t>Bibi Vengeance</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>비비</t>
+          <t>520205.0</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -58261,7 +58265,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>아일릿</t>
+          <t>530462.0</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -58281,7 +58285,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>르세라핌</t>
+          <t>530422.0</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -58296,12 +58300,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>Welcome To The Show</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>데이식스</t>
+          <t>530270.0</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -58321,7 +58325,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>530265.0</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -58336,12 +58340,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Go! (Ost. Twenty-Five Twenty-One)</t>
+          <t>Go! (Ost.  Twenty-Five Twenty-One)</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>도겸</t>
+          <t>510944.0</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -58361,7 +58365,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>뉴진스</t>
+          <t>530424.0</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -58381,7 +58385,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>뱀뱀 - 강슬기</t>
+          <t>510854.0 - 520152</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -58401,7 +58405,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>더로즈</t>
+          <t>530334.0</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -58421,7 +58425,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>530265.0</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -58436,12 +58440,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BOCA</t>
+          <t>Boca</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>드림캐쳐</t>
+          <t>530347.0</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -58456,12 +58460,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HOME RUN</t>
+          <t>Home Run</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>530265.0</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -58481,7 +58485,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>비아이</t>
+          <t>510883.0</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -58501,7 +58505,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>이하이</t>
+          <t>520054.0</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -58521,7 +58525,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -58536,12 +58540,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>REALLY</t>
+          <t>Really</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>블랙핑크</t>
+          <t>530278.0</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -58561,7 +58565,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>에스파</t>
+          <t>530389.0</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -58576,12 +58580,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Sweet (Ost. Business Proposal)</t>
+          <t>Sweet (Ost.  Business Proposal)</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>510942.0</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -58601,7 +58605,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>트레저</t>
+          <t>530393.0</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -58621,7 +58625,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>뉴진스</t>
+          <t>530424.0</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -58641,7 +58645,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>디오</t>
+          <t>510884.0</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -58661,7 +58665,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>소녀시대</t>
+          <t>530046.0</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -58681,7 +58685,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>샤이니</t>
+          <t>530074.0</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -58696,12 +58700,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>강남스타일</t>
+          <t>Gangnam Style</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>박재상</t>
+          <t>510660.0</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -58721,7 +58725,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>엔하이픈</t>
+          <t>530404.0</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -58741,7 +58745,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>530173.0</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -58761,7 +58765,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>에스파</t>
+          <t>530389.0</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -58781,7 +58785,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>에스파</t>
+          <t>530389.0</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -58801,7 +58805,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>트와이스</t>
+          <t>530275.0</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -58821,7 +58825,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>트와이스</t>
+          <t>530275.0</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -58836,12 +58840,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>눈누난나</t>
+          <t>Nunu Nana</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>호현주</t>
+          <t>520125.0</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -58856,12 +58860,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>댄싱 퀸</t>
+          <t>Dancing Queen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>소녀시대</t>
+          <t>530046.0</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -58876,12 +58880,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>손을 들어</t>
+          <t>Hands Up</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Meovv</t>
+          <t>530472.0</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -58901,7 +58905,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>세븐틴 - DJ Khaled</t>
+          <t>530265.0 - 210388</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -58921,7 +58925,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>에스파</t>
+          <t>530389.0</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -58941,7 +58945,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>엑소</t>
+          <t>530036.0</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -58961,7 +58965,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>530173.0</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -58981,7 +58985,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>레드벨벳</t>
+          <t>530225.0</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -59001,7 +59005,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>트와이스</t>
+          <t>530275.0</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -59016,12 +59020,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>FIESTA</t>
+          <t>Fiesta</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>아이즈원</t>
+          <t>530353.0</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -59036,12 +59040,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>삐딱하게</t>
+          <t>Crooked</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>지드래곤</t>
+          <t>510868.0</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -59061,7 +59065,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>에스파</t>
+          <t>530389.0</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -59081,7 +59085,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>엔시티 127</t>
+          <t>530285.0</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -59096,12 +59100,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>After LIKE</t>
+          <t>After Like</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>아이브</t>
+          <t>530416.0</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -59121,7 +59125,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>진</t>
+          <t>510874.0</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -59141,7 +59145,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>정승환</t>
+          <t>510819.0</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -59161,7 +59165,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>530265.0</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -59176,12 +59180,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>WA DA DA</t>
+          <t>Wa Da Da</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>케플러</t>
+          <t>530419.0</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -59201,7 +59205,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>첸 - 펀치</t>
+          <t>510793.0 - 520185</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -59221,7 +59225,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>이예진</t>
+          <t>520001.0</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -59241,7 +59245,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>레드벨벳</t>
+          <t>530225.0</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -59261,7 +59265,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>530173.0</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -59276,12 +59280,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Blue Flower (Ost. Alchemy of Souls : Light and Shadow)</t>
+          <t>Blue Flower (Ost.  Alchemy Of Souls : Light And Shadow)</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>리아</t>
+          <t>520214.0</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -59301,7 +59305,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>威神V</t>
+          <t>530360.0</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -59316,12 +59320,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>아마 내일</t>
+          <t>Maybe Tomorrow</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>데이식스</t>
+          <t>530270.0</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -59336,12 +59340,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>우뢰</t>
+          <t>Thunder</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>세븐틴</t>
+          <t>530265.0</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -60391,4 +60395,181 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Pop</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Daerah</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Jepang</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Lain-Lain</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <f>='Indonesia Pop'!C2185</f>
+        <v/>
+      </c>
+      <c r="B2" s="2">
+        <f>='Indonesia Daerah'!C50</f>
+        <v/>
+      </c>
+      <c r="C2" s="2">
+        <f>='English'!C511</f>
+        <v/>
+      </c>
+      <c r="D2" s="2">
+        <f>='Mandarin'!C10</f>
+        <v/>
+      </c>
+      <c r="E2" s="2">
+        <f>='Jepang'!C9</f>
+        <v/>
+      </c>
+      <c r="F2" s="2">
+        <f>='Korea'!C179</f>
+        <v/>
+      </c>
+      <c r="G2" s="2">
+        <f>='Lain-Lain'!C51</f>
+        <v/>
+      </c>
+      <c r="H2" s="2">
+        <f>SUM(A2:G2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Pop</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Daerah</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Jepang</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Lain-Lain</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <f>A2/H2</f>
+        <v/>
+      </c>
+      <c r="B4" s="2">
+        <f>B2/H2</f>
+        <v/>
+      </c>
+      <c r="C4" s="2">
+        <f>C2/H2</f>
+        <v/>
+      </c>
+      <c r="D4" s="2">
+        <f>D2/H2</f>
+        <v/>
+      </c>
+      <c r="E4" s="2">
+        <f>E2/H2</f>
+        <v/>
+      </c>
+      <c r="F4" s="2">
+        <f>F2/H2</f>
+        <v/>
+      </c>
+      <c r="G4" s="2">
+        <f>G2/H2</f>
+        <v/>
+      </c>
+      <c r="H4" s="2">
+        <f>H2/H2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/07. JULI/hasil/IDLAGU_Outlet_HP038.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP038.xlsx
@@ -55421,7 +55421,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>311380.0 - 311381 - 311468.0</t>
+          <t>Hai Lai A Mu - A Ga La Gu - Qu Biaqie</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -55441,7 +55441,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>310483.0</t>
+          <t>Michael Wong</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -55461,7 +55461,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>311326.0</t>
+          <t>Eric Chou</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -55481,7 +55481,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>311188.0 - 330016</t>
+          <t>Silence Wang - BY2</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -55501,7 +55501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>320153.0</t>
+          <t>Jolin Tsai</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -55521,7 +55521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>310617.0</t>
+          <t>Geng Dengqing</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -55541,7 +55541,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>311326.0</t>
+          <t>Eric Chou</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -55561,7 +55561,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>122402.0</t>
+          <t>Desy Huang Jia Mei</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -55633,7 +55633,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>430212.0 - 420498</t>
+          <t>Man with a Mission - Milet</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -55653,7 +55653,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>520066.0 - 420492</t>
+          <t>Taeyeon - Chanmina</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -55673,7 +55673,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>420496.0</t>
+          <t>LiSA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -55693,7 +55693,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>430210.0</t>
+          <t>Yoasobi</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -55713,7 +55713,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>430210.0</t>
+          <t>Yoasobi</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -55733,7 +55733,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>411238.0</t>
+          <t>Motohiro Hata</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -55753,7 +55753,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>430210.0</t>
+          <t>Yoasobi</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -55825,7 +55825,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -55845,7 +55845,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>530310.0</t>
+          <t>Stray Kids</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -55865,7 +55865,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -55885,7 +55885,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>530225.0</t>
+          <t>Red Velvet</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -55905,7 +55905,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -55925,7 +55925,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>530017.0</t>
+          <t>Big Bang</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -55945,7 +55945,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>520180.0</t>
+          <t>Hwasa</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -55965,7 +55965,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>530270.0</t>
+          <t>DAY6</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -55985,7 +55985,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -56005,7 +56005,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>520074.0</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -56025,7 +56025,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>510742.0</t>
+          <t>Crush</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -56045,7 +56045,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>530448.0</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -56065,7 +56065,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>530422.0</t>
+          <t>Le Sserafim</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -56085,7 +56085,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>520212.0</t>
+          <t>Winter</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -56105,7 +56105,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>530351.0</t>
+          <t>ATEEZ</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -56125,7 +56125,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>520122.0</t>
+          <t>Jimin</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -56145,7 +56145,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -56165,7 +56165,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>530303.0</t>
+          <t>BOL4</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -56185,7 +56185,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>530023.0</t>
+          <t>BTOB</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -56205,7 +56205,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>520015.0</t>
+          <t>IU</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -56225,7 +56225,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -56245,7 +56245,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>530266.0</t>
+          <t>iKON</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -56265,7 +56265,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -56285,7 +56285,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>530465.0</t>
+          <t>Eclipse</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -56305,7 +56305,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>520066.0</t>
+          <t>Taeyeon</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -56325,7 +56325,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>520177.0</t>
+          <t>Ben</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -56345,7 +56345,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -56365,7 +56365,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>530363.0</t>
+          <t>ITZY</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -56385,7 +56385,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>530462.0</t>
+          <t>ILLIT</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -56405,7 +56405,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -56425,7 +56425,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>530211.0</t>
+          <t>AKMU</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -56445,7 +56445,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>530270.0</t>
+          <t>DAY6</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -56465,7 +56465,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>510896.0</t>
+          <t>Gaho</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -56485,7 +56485,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>530031.0</t>
+          <t>Davichi</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -56505,7 +56505,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>530275.0</t>
+          <t>Twice</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -56525,7 +56525,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>520066.0</t>
+          <t>Taeyeon</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -56545,7 +56545,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>520054.0</t>
+          <t>Lee Hi</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -56565,7 +56565,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>530347.0</t>
+          <t>Dreamcatcher</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -56585,7 +56585,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>530389.0</t>
+          <t>Aespa</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -56605,7 +56605,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>530254.0</t>
+          <t>GFriend</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -56625,7 +56625,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>530265.0</t>
+          <t>Seventeen</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -56645,7 +56645,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -56665,7 +56665,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>530007.0</t>
+          <t>4Minute</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -56685,7 +56685,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -56705,7 +56705,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -56725,7 +56725,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>520001.0</t>
+          <t>Ailee</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -56745,7 +56745,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>530294.0</t>
+          <t>NCT Dream</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -56765,7 +56765,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>530265.0</t>
+          <t>Seventeen</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -56785,7 +56785,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>530046.0</t>
+          <t>Girls' Generation</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -56805,7 +56805,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>530424.0</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -56825,7 +56825,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>530265.0</t>
+          <t>Seventeen</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -56845,7 +56845,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>530457.0</t>
+          <t>BabyMonster</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -56865,7 +56865,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>530265.0</t>
+          <t>Seventeen</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -56885,7 +56885,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>530266.0</t>
+          <t>iKON</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -56905,7 +56905,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -56925,7 +56925,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -56945,7 +56945,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>510831.0</t>
+          <t>Paul Kim</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -56965,7 +56965,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>520083.0</t>
+          <t>Yoon Mi-rae</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -56985,7 +56985,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>510819.0</t>
+          <t>Jung Seung-hwan</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -57005,7 +57005,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>510779.0 - 510793 - 510814.0</t>
+          <t>Baekhyun - Chen - Xiumin</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -57025,7 +57025,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>530457.0</t>
+          <t>BabyMonster</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -57045,7 +57045,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>530270.0</t>
+          <t>DAY6</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -57065,7 +57065,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>530275.0</t>
+          <t>Twice</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -57085,7 +57085,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>530270.0</t>
+          <t>DAY6</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -57105,7 +57105,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>520149.0 - 510705</t>
+          <t>Heize - Shin Yong-Jae</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -57125,7 +57125,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>530266.0</t>
+          <t>iKON</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -57145,7 +57145,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>530003.0</t>
+          <t>2NE1</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -57165,7 +57165,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>530003.0</t>
+          <t>2NE1</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -57185,7 +57185,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>530003.0</t>
+          <t>2NE1</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -57205,7 +57205,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>530211.0</t>
+          <t>AKMU</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -57225,7 +57225,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>530010.0</t>
+          <t>Apink</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -57245,7 +57245,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>510579.0</t>
+          <t>Taeyang</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -57265,7 +57265,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>530003.0</t>
+          <t>2NE1</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -57285,7 +57285,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>520015.0</t>
+          <t>IU</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -57305,7 +57305,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>530006.0</t>
+          <t>VIXX</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -57325,7 +57325,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>530017.0</t>
+          <t>Big Bang</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -57345,7 +57345,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>530270.0</t>
+          <t>DAY6</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -57365,7 +57365,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>520015.0</t>
+          <t>IU</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -57385,7 +57385,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>530303.0</t>
+          <t>BOL4</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -57405,7 +57405,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>530266.0</t>
+          <t>iKON</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -57425,7 +57425,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>510896.0</t>
+          <t>Gaho</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -57445,7 +57445,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>530457.0</t>
+          <t>BabyMonster</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -57465,7 +57465,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>530426.0</t>
+          <t>ONF</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -57485,7 +57485,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>520054.0</t>
+          <t>Lee Hi</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -57505,7 +57505,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>530272.0</t>
+          <t>NCT U</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -57525,7 +57525,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>510779.0</t>
+          <t>Baekhyun</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -57545,7 +57545,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>520015.0</t>
+          <t>IU</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -57565,7 +57565,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>530084.0</t>
+          <t>Super Junior</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -57585,7 +57585,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>530285.0</t>
+          <t>NCT 127</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -57605,7 +57605,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>530462.0</t>
+          <t>ILLIT</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -57625,7 +57625,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>530448.0</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -57645,7 +57645,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>530225.0</t>
+          <t>Red Velvet</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -57665,7 +57665,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>530046.0</t>
+          <t>Girls' Generation</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -57685,7 +57685,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>530036.0</t>
+          <t>EXO</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -57705,7 +57705,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>520083.0</t>
+          <t>Yoon Mi-rae</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -57725,7 +57725,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>530173.0</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -57745,7 +57745,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>530017.0</t>
+          <t>Big Bang</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -57765,7 +57765,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>530457.0</t>
+          <t>BabyMonster</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -57785,7 +57785,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>530254.0</t>
+          <t>GFriend</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -57805,7 +57805,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>520066.0</t>
+          <t>Taeyeon</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -57825,7 +57825,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>520054.0 - 510883</t>
+          <t>Lee Hi - B.I</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -57845,7 +57845,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>530365.0 - 520201</t>
+          <t>Tomorrow X Together - Seori</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -57865,7 +57865,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>510909.0</t>
+          <t>Suga</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -57885,7 +57885,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>530270.0</t>
+          <t>DAY6</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -57905,7 +57905,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>530173.0 - 212082</t>
+          <t>BTS - Desiigner</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -57925,7 +57925,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>530017.0</t>
+          <t>Big Bang</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -57945,7 +57945,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>530048.0</t>
+          <t>INFINITE</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -57965,7 +57965,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>530003.0</t>
+          <t>2NE1</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -57985,7 +57985,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>530017.0</t>
+          <t>Big Bang</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -58005,7 +58005,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>530017.0</t>
+          <t>Big Bang</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -58025,7 +58025,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>510765.0</t>
+          <t>Tiger JK</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -58045,7 +58045,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>530173.0</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -58065,7 +58065,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>530017.0</t>
+          <t>Big Bang</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -58085,7 +58085,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>530363.0</t>
+          <t>ITZY</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -58105,7 +58105,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>530266.0</t>
+          <t>iKON</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -58125,7 +58125,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>530211.0</t>
+          <t>AKMU</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -58145,7 +58145,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>530265.0</t>
+          <t>Seventeen</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -58165,7 +58165,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>530459.0</t>
+          <t>TWS</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -58185,7 +58185,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>530457.0</t>
+          <t>BabyMonster</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -58205,7 +58205,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -58225,7 +58225,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -58245,7 +58245,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>520205.0</t>
+          <t>BIBI</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -58265,7 +58265,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>530462.0</t>
+          <t>ILLIT</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -58285,7 +58285,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>530422.0</t>
+          <t>Le Sserafim</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -58305,7 +58305,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>530270.0</t>
+          <t>DAY6</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -58325,7 +58325,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>530265.0</t>
+          <t>Seventeen</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -58345,7 +58345,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>510944.0</t>
+          <t>Dokyeom</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -58365,7 +58365,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>530424.0</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -58385,7 +58385,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>510854.0 - 520152</t>
+          <t>BamBam - Seulgi</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -58405,7 +58405,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>530334.0</t>
+          <t>Rose, The</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -58425,7 +58425,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>530265.0</t>
+          <t>Seventeen</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -58445,7 +58445,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>530347.0</t>
+          <t>Dreamcatcher</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -58465,7 +58465,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>530265.0</t>
+          <t>Seventeen</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -58485,7 +58485,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>510883.0</t>
+          <t>B.I</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -58505,7 +58505,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>520054.0</t>
+          <t>Lee Hi</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -58525,7 +58525,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -58545,7 +58545,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>530278.0</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -58565,7 +58565,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>530389.0</t>
+          <t>Aespa</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -58585,7 +58585,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>510942.0</t>
+          <t>Lee Mu-jin</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -58605,7 +58605,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>530393.0</t>
+          <t>TREASURE</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -58625,7 +58625,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>530424.0</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -58645,7 +58645,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>510884.0</t>
+          <t>D.O.</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -58665,7 +58665,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>530046.0</t>
+          <t>Girls' Generation</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -58685,7 +58685,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>530074.0</t>
+          <t>SHINee</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -58705,7 +58705,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>510660.0</t>
+          <t>PSY</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -58725,7 +58725,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>530404.0</t>
+          <t>Enhypen</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -58745,7 +58745,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>530173.0</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -58765,7 +58765,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>530389.0</t>
+          <t>Aespa</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -58785,7 +58785,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>530389.0</t>
+          <t>Aespa</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -58805,7 +58805,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>530275.0</t>
+          <t>Twice</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -58825,7 +58825,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>530275.0</t>
+          <t>Twice</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -58845,7 +58845,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>520125.0</t>
+          <t>Jessi</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -58865,7 +58865,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>530046.0</t>
+          <t>Girls' Generation</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -58885,7 +58885,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>530472.0</t>
+          <t>Meovv</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -58905,7 +58905,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>530265.0 - 210388</t>
+          <t>Seventeen - DJ Khaled</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -58925,7 +58925,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>530389.0</t>
+          <t>Aespa</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -58945,7 +58945,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>530036.0</t>
+          <t>EXO</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -58965,7 +58965,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>530173.0</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -58985,7 +58985,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>530225.0</t>
+          <t>Red Velvet</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -59005,7 +59005,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>530275.0</t>
+          <t>Twice</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -59025,7 +59025,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>530353.0</t>
+          <t>Iz One</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -59045,7 +59045,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>510868.0</t>
+          <t>G-Dragon</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -59065,7 +59065,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>530389.0</t>
+          <t>Aespa</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -59085,7 +59085,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>530285.0</t>
+          <t>NCT 127</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -59105,7 +59105,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>530416.0</t>
+          <t>IVE</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -59125,7 +59125,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>510874.0</t>
+          <t>Jin</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -59145,7 +59145,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>510819.0</t>
+          <t>Jung Seung-hwan</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -59165,7 +59165,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>530265.0</t>
+          <t>Seventeen</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -59185,7 +59185,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>530419.0</t>
+          <t>Kep1er</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -59205,7 +59205,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>510793.0 - 520185</t>
+          <t>Chen - Punch</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -59225,7 +59225,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>520001.0</t>
+          <t>Ailee</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -59245,7 +59245,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>530225.0</t>
+          <t>Red Velvet</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -59265,7 +59265,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>530173.0</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -59285,7 +59285,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>520214.0</t>
+          <t>Lia (ITZY)</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -59305,7 +59305,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>530360.0</t>
+          <t>WayV</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -59325,7 +59325,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>530270.0</t>
+          <t>DAY6</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -59345,7 +59345,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>530265.0</t>
+          <t>Seventeen</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -59677,7 +59677,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>孙艺琪</t>
+          <t>Sun Yiqi</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -60369,7 +60369,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>王韵 - DJ Shen nian</t>
+          <t>Wang Yun - DJ Shen Nian</t>
         </is>
       </c>
       <c r="C50" t="n">

--- a/07. JULI/hasil/IDLAGU_Outlet_HP038.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP038.xlsx
@@ -36,12 +36,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ccccff"/>
+        <bgColor rgb="00ccccff"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -62,10 +68,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -60403,7 +60412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60414,162 +60423,198 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Kategori Bahasa</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
           <t>Indonesia Pop</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Indonesia Daerah</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Mandarin</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Jepang</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Lain-Lain</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
+    <row r="3">
+      <c r="A3" s="3">
         <f>='Indonesia Pop'!C2185</f>
         <v/>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="3">
         <f>='Indonesia Daerah'!C50</f>
         <v/>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="3">
         <f>='English'!C511</f>
         <v/>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="3">
         <f>='Mandarin'!C10</f>
         <v/>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="3">
         <f>='Jepang'!C9</f>
         <v/>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="3">
         <f>='Korea'!C179</f>
         <v/>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="3">
         <f>='Lain-Lain'!C51</f>
         <v/>
       </c>
-      <c r="H2" s="2">
-        <f>SUM(A2:G2)</f>
+      <c r="H3" s="3">
+        <f>SUM(A3:G3)</f>
         <v/>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Prosentase</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Indonesia Pop</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Indonesia Daerah</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>Mandarin</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Jepang</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Lain-Lain</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <f>A2/H2</f>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>A3/H3</f>
         <v/>
       </c>
-      <c r="B4" s="2">
-        <f>B2/H2</f>
+      <c r="B7">
+        <f>B3/H3</f>
         <v/>
       </c>
-      <c r="C4" s="2">
-        <f>C2/H2</f>
+      <c r="C7">
+        <f>C3/H3</f>
         <v/>
       </c>
-      <c r="D4" s="2">
-        <f>D2/H2</f>
+      <c r="D7">
+        <f>D3/H3</f>
         <v/>
       </c>
-      <c r="E4" s="2">
-        <f>E2/H2</f>
+      <c r="E7">
+        <f>E3/H3</f>
         <v/>
       </c>
-      <c r="F4" s="2">
-        <f>F2/H2</f>
+      <c r="F7">
+        <f>F3/H3</f>
         <v/>
       </c>
-      <c r="G4" s="2">
-        <f>G2/H2</f>
+      <c r="G7">
+        <f>G3/H3</f>
         <v/>
       </c>
-      <c r="H4" s="2">
-        <f>H2/H2</f>
+      <c r="H7">
+        <f>H3/H3</f>
         <v/>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/07. JULI/hasil/IDLAGU_Outlet_HP038.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP038.xlsx
@@ -60523,7 +60523,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Prosentase</t>
+          <t>Persentase</t>
         </is>
       </c>
       <c r="B5" s="3" t="n"/>
